--- a/data/final_exports.xlsx
+++ b/data/final_exports.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alqer\Desktop\uni\s2\supply-chain-management\project\exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\uni\s2\supply-chain-management\project\facility-location-problem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122B81F-6EAA-4779-A5A7-8F1C72F58D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,51 +24,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
-    <t>'610910</t>
+    <t>610130</t>
   </si>
   <si>
-    <t>'580210</t>
+    <t>570242</t>
   </si>
   <si>
-    <t>'940360</t>
+    <t>940440</t>
   </si>
   <si>
-    <t>'940161</t>
+    <t>441820</t>
   </si>
   <si>
-    <t>'940429</t>
+    <t>250810</t>
   </si>
   <si>
-    <t>'570242</t>
+    <t>940490</t>
   </si>
   <si>
-    <t>'730830</t>
+    <t>871200</t>
   </si>
   <si>
-    <t>'340111</t>
+    <t>340111</t>
   </si>
   <si>
-    <t>'871200</t>
+    <t>730830</t>
   </si>
   <si>
-    <t>'940490</t>
+    <t>940429</t>
   </si>
   <si>
-    <t>'250810</t>
+    <t>940161</t>
   </si>
   <si>
-    <t>'441820</t>
+    <t>940360</t>
   </si>
   <si>
-    <t>'940440</t>
+    <t>580210</t>
+  </si>
+  <si>
+    <t>610910</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -221,18 +223,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -260,10 +250,22 @@
     <xf numFmtId="43" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,1003 +542,1006 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3">
-        <v>610130</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1721681</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>3130</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>45190</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1">
         <v>19458</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>20433</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>49816</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="1">
         <v>10915</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>3348</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="2">
         <v>14449</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="2">
         <v>16519</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="3">
         <v>18124</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="1">
         <v>8602</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="4">
         <v>8562</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="1">
         <v>3302</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="1">
         <v>49816</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>2087053</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>5854</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>80394</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>24695</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>29936</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>70805</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <v>15696</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>9653</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="2">
         <v>21785</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="2">
         <v>23236</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="3">
         <v>22496</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="1">
         <v>11658</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="4">
         <v>10121</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="1">
         <v>1195</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="1">
         <v>70805</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>2303883</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>7697</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>112281</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>23588</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>26248</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>71824</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <v>17041</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="1">
         <v>14995</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="2">
         <v>24813</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="2">
         <v>20904</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="3">
         <v>28150</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="1">
         <v>13318</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="4">
         <v>16767</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="1">
         <v>2447</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="1">
         <v>71824</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>2354035</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>11000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>109991</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>31703</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>28049</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>66996</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>23663</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="1">
         <v>14671</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="2">
         <v>24302</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2">
         <v>15817</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="3">
         <v>32260</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="1">
         <v>15254</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="4">
         <v>23771</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="1">
         <v>1610</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="1">
         <v>66996</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>2401355</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>12084</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>135673</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>52620</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>37782</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>105568</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>32074</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="1">
         <v>18408</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="2">
         <v>26154</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="2">
         <v>15660</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
         <v>48089</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="1">
         <v>16396</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="4">
         <v>25438</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="1">
         <v>1167</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="1">
         <v>105568</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>2264864</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>15453</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>183654</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>63516</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>41805</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>768237</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <v>43692</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="1">
         <v>24654</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="2">
         <v>25783</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="2">
         <v>18891</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="3">
         <v>52066</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="1">
         <v>21501</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="4">
         <v>32634</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="1">
         <v>2072</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="1">
         <v>768237</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>1745001</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>10433</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>192943</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>61349</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>40013</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>727577</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <v>44257</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="1">
         <v>26725</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="2">
         <v>26812</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="2">
         <v>17188</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <v>43721</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="1">
         <v>23521</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="4">
         <v>49700</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="1">
         <v>1165</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="1">
         <v>727577</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>1920751</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>12873</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>240065</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>75813</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>39535</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>911813</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>49487</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="1">
         <v>166877</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="2">
         <v>28834</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="2">
         <v>14877</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <v>45726</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="1">
         <v>28902</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="4">
         <v>47913</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="1">
         <v>5887</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="1">
         <v>911813</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>1948937</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="2">
         <v>15890</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>283853</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>88039</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="1">
         <v>45478</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>1208336</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="1">
         <v>69102</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="1">
         <v>231522</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="2">
         <v>28404</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="2">
         <v>23710</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="3">
         <v>50328</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="1">
         <v>34907</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="4">
         <v>53412</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="1">
         <v>1057</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="1">
         <v>1208336</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>1795953</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="2">
         <v>15768</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>336807</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>125924</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="1">
         <v>49646</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>1608189</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="1">
         <v>89556</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="1">
         <v>262254</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="2">
         <v>31852</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="2">
         <v>20678</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="3">
         <v>48249</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="1">
         <v>37695</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="4">
         <v>56499</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="1">
         <v>1258</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="1">
         <v>1608189</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>1810813</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="2">
         <v>18232</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>395129</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>155641</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <v>68990</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
         <v>1791050</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="1">
         <v>118852</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="1">
         <v>276516</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="2">
         <v>48929</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="2">
         <v>22492</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="3">
         <v>63032</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="1">
         <v>46402</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="4">
         <v>88439</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="1">
         <v>1825</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="1">
         <v>1791050</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>1814694</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <v>18103</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>435501</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>179794</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="1">
         <v>71969</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>1924110</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="1">
         <v>129463</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="1">
         <v>312526</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="2">
         <v>58633</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="2">
         <v>29769</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="3">
         <v>67055</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="1">
         <v>47931</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="4">
         <v>136486</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="1">
         <v>3049</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="1">
         <v>1924110</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>1512911</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="2">
         <v>10270</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>407032</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <v>172742</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="1">
         <v>61499</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="1">
         <v>1641611</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="1">
         <v>125089</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="1">
         <v>232801</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="2">
         <v>60678</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="2">
         <v>35627</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="3">
         <v>60394</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="1">
         <v>46991</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="4">
         <v>86857</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="1">
         <v>2342</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="1">
         <v>1641611</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>1583246</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <v>9858</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>336171</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>181547</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="1">
         <v>56616</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="1">
         <v>1554522</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="1">
         <v>109699</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="1">
         <v>192671</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="2">
         <v>49747</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="2">
         <v>30592</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="3">
         <v>61303</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="1">
         <v>59380</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="4">
         <v>68018</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="1">
         <v>2320</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="1">
         <v>1554522</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>1652997</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="2">
         <v>11249</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>320228</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="1">
         <v>208297</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="1">
         <v>68251</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="1">
         <v>1758061</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="1">
         <v>108322</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="1">
         <v>187791</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="2">
         <v>30223</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="2">
         <v>31559</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="3">
         <v>67414</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="1">
         <v>64597</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="4">
         <v>65455</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="1">
         <v>2525</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="1">
         <v>1758061</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>1681678</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="2">
         <v>13030</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>376913</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <v>245258</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="1">
         <v>88619</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="1">
         <v>1824213</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="1">
         <v>108768</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="1">
         <v>171521</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="2">
         <v>37879</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="2">
         <v>26512</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="3">
         <v>78481</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="1">
         <v>74320</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="4">
         <v>68208</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="1">
         <v>2902</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="1">
         <v>1824213</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>1773090</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="2">
         <v>14448</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>426295</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="1">
         <v>315501</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="1">
         <v>154888</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="1">
         <v>2038765</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="1">
         <v>128277</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="1">
         <v>176356</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="2">
         <v>49051</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="2">
         <v>32257</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="3">
         <v>92641</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="1">
         <v>89460</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="4">
         <v>71524</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="1">
         <v>3608</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="1">
         <v>2038765</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>1513418</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="2">
         <v>12513</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>439647</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>321995</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="1">
         <v>232411</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="1">
         <v>2139020</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
         <v>139782</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="1">
         <v>243298</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="2">
         <v>53261</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="2">
         <v>29941</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="3">
         <v>105490</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="1">
         <v>96262</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="4">
         <v>84037</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="5">
         <v>4279</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="1">
         <v>2139020</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>1854924</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="2">
         <v>16213</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>596667</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="1">
         <v>447169</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="1">
         <v>219587</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="1">
         <v>2584879</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="1">
         <v>209249</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="1">
         <v>229222</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="2">
         <v>80253</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="2">
         <v>41745</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="3">
         <v>150398</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="1">
         <v>117211</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="4">
         <v>103137</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="5">
         <v>2909</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="1">
         <v>2584879</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>1883043</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>17028</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>697013</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>499039</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>185740</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <v>2164564</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="6">
         <v>224035</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="6">
         <v>301336</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="8">
         <v>88417</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="8">
         <v>64939</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="7">
         <v>133700</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="6">
         <v>143504</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="6">
         <v>124334</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="9">
         <v>16994</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="6">
         <v>2164564</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:O1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>